--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Acceleration\Automation\WorkSpace\Mohit\New_Selenium\Selenium_New\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F1AFA8-3B51-419F-B11C-5CE5B23994CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA412BE-4F21-47F1-B164-07F4B5E030D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D79504BB-8267-4219-94BB-E6727D854CD5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Class" sheetId="1" r:id="rId1"/>
+    <sheet name="Create_Customer_Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +25,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Mohit</t>
+  </si>
+  <si>
+    <t>Sonawane</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,27 +54,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -73,9 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,7 +111,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -122,7 +123,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -169,6 +170,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -204,6 +222,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -355,25 +390,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A835618F-9449-4447-9B2A-40AB335AF0EE}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>425107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
